--- a/run_1/RandomForestRegressor/RFR_GLM/Tables/RFR_GLM_performance_metrics_per_fold.xlsx
+++ b/run_1/RandomForestRegressor/RFR_GLM/Tables/RFR_GLM_performance_metrics_per_fold.xlsx
@@ -458,7 +458,7 @@
         <v>0.2453816795186131</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.03190312653383998</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.2422630462185279</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.2287737294483784</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0.2650017440210113</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
